--- a/TestList/6.0sdstudy.xlsx
+++ b/TestList/6.0sdstudy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24645" windowHeight="12015"/>
+    <workbookView windowWidth="24525" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
   <si>
     <t>序号
 （id）</t>
@@ -111,6 +111,15 @@
     <t>/html/body/div[1]/div/div[2]/div[2]/div/div[2]/div[2]/div[2]/form/ul/li[4]/button</t>
   </si>
   <si>
+    <t>waitlogin</t>
+  </si>
+  <si>
+    <t>等待</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>studycenter</t>
   </si>
   <si>
@@ -135,19 +144,13 @@
     <t>http://sdjy.59iedu.com/play/#/learn/778a14426281458b80f32bf0c2f83879/30d81eca4cf142509fe1b385b21ef240/courseware</t>
   </si>
   <si>
-    <t>goto 800li</t>
-  </si>
-  <si>
-    <t>//a[contains(@class,'ml-1 btn')]</t>
-  </si>
-  <si>
-    <t>wait</t>
-  </si>
-  <si>
-    <t>等待</t>
-  </si>
-  <si>
-    <t>null</t>
+    <t>ckick play</t>
+  </si>
+  <si>
+    <t>//*[@id="lesson_player_box_container_new_hwCloud_dom_baby"]/button</t>
+  </si>
+  <si>
+    <t>wait play</t>
   </si>
 </sst>
 </file>
@@ -157,8 +160,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -177,6 +180,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -185,7 +239,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,16 +261,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -223,91 +285,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,43 +325,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,139 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,15 +516,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -543,6 +537,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -558,6 +567,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -569,32 +598,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,10 +622,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -631,141 +634,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1115,40 +1122,40 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="96.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="96.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="24.625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31" customHeight="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1156,7 +1163,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1165,7 +1172,7 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1176,7 +1183,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1185,7 +1192,7 @@
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1196,7 +1203,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1205,10 +1212,10 @@
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1216,7 +1223,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1225,10 +1232,10 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1236,7 +1243,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1245,7 +1252,7 @@
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1256,7 +1263,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1265,7 +1272,7 @@
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1276,7 +1283,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1285,7 +1292,7 @@
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1296,7 +1303,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1305,28 +1312,28 @@
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" s="2" customFormat="1" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>30</v>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
@@ -1336,17 +1343,17 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>31</v>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
@@ -1356,17 +1363,17 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>33</v>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -1376,17 +1383,17 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -1396,17 +1403,17 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>37</v>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>38</v>
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>10</v>
@@ -1416,44 +1423,63 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
+      <c r="B15" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D7 D8 D9 D11 D13 D15 D5:D6 D16:D28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C6 C7 C8 C9 C10 C11 C12 C13 C14 C16 C4:C5 C17:C22">
+      <formula1>"访问,输入,点击,等待,查验"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D7 D8 D9 D10 D12 D14 D16 D5:D6 D17:D29">
       <formula1>"URL,Xpath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C4:C5 C16:C21">
-      <formula1>"访问,输入,点击,等待,查验"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30:D31">
+      <formula1>"URL、Xpath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23:C32">
       <formula1>"访问,输入,点击,等待"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D29:D30">
-      <formula1>"URL、Xpath"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D31:D65527">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32:D65528">
       <formula1>"xpath,name,id,css,text"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="http://sdjy.59iedu.com/" tooltip="http://sdjy.59iedu.com/"/>
-    <hyperlink ref="E11" r:id="rId2" display="http://sdjy.59iedu.com/center/myRealClass/778a14426281458b80f32bf0c2f83879"/>
-    <hyperlink ref="E13" r:id="rId3" display="http://sdjy.59iedu.com/play/#/learn/778a14426281458b80f32bf0c2f83879/30d81eca4cf142509fe1b385b21ef240/courseware"/>
+    <hyperlink ref="E12" r:id="rId2" display="http://sdjy.59iedu.com/center/myRealClass/778a14426281458b80f32bf0c2f83879"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/TestList/6.0sdstudy.xlsx
+++ b/TestList/6.0sdstudy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
   <si>
     <t>序号
 （id）</t>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>/html/body/div[1]/div/div[2]/div[2]/div/div[2]/div[2]/div[2]/form/ul/li[4]/button</t>
+  </si>
+  <si>
+    <t>重跑</t>
   </si>
   <si>
     <t>waitlogin</t>
@@ -158,10 +161,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -181,7 +184,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -189,65 +192,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,9 +250,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,45 +318,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -325,19 +328,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,163 +490,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,18 +524,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,17 +563,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,17 +576,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -616,16 +610,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,131 +637,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1125,7 +1128,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1316,7 +1319,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:6">
@@ -1324,16 +1327,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
@@ -1344,7 +1347,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -1353,7 +1356,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
@@ -1364,7 +1367,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -1373,7 +1376,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>10</v>
@@ -1384,7 +1387,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
@@ -1393,7 +1396,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -1404,7 +1407,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -1413,7 +1416,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>10</v>
@@ -1424,7 +1427,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -1433,7 +1436,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
@@ -1444,16 +1447,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
@@ -1467,14 +1470,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D7 D8 D9 D10 D12 D14 D16 D5:D6 D17:D29">
       <formula1>"URL,Xpath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30:D31">
-      <formula1>"URL、Xpath"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23:C32">
       <formula1>"访问,输入,点击,等待"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32:D65528">
       <formula1>"xpath,name,id,css,text"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30:D31">
+      <formula1>"URL、Xpath"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
